--- a/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet Morten Andersen.xlsx
+++ b/Documentation/08 - Project Management/Tidsregistrering/Tidsregistrering i PTE projektet Morten Andersen.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="176">
   <si>
     <t>Business-Process Analyst</t>
   </si>
@@ -418,10 +418,142 @@
     <t>Dokumenter arbejde</t>
   </si>
   <si>
-    <t>Lav OC5 (DCD, SD) om</t>
-  </si>
-  <si>
     <t>15.20</t>
+  </si>
+  <si>
+    <t>Test og implementering af super- og subString</t>
+  </si>
+  <si>
+    <t>08.20</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>3 timer</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>lav felter gule</t>
+  </si>
+  <si>
+    <t>13.15</t>
+  </si>
+  <si>
+    <t>projekt manenger (lav post-it's)</t>
+  </si>
+  <si>
+    <t>Lav UC9 (DCD, SD)</t>
+  </si>
+  <si>
+    <t>Lav OC5 (DCD, SD)</t>
+  </si>
+  <si>
+    <t>11.45</t>
+  </si>
+  <si>
+    <t>forsæt på at lave UC9 (DCD, SD)</t>
+  </si>
+  <si>
+    <t>Implementer TestSuite OC 10</t>
+  </si>
+  <si>
+    <t>1 time 20 min</t>
+  </si>
+  <si>
+    <t>1 time 30 min</t>
+  </si>
+  <si>
+    <t>review design OC10</t>
+  </si>
+  <si>
+    <t>09.20</t>
+  </si>
+  <si>
+    <t>implementation af OC 9</t>
+  </si>
+  <si>
+    <t>implementation af OC 13</t>
+  </si>
+  <si>
+    <t>implementation af OC 14</t>
+  </si>
+  <si>
+    <t>13.40</t>
+  </si>
+  <si>
+    <t>3 timer 20 min</t>
+  </si>
+  <si>
+    <t>implementation af OC 15</t>
+  </si>
+  <si>
+    <t>Fixing komma til punktum</t>
+  </si>
+  <si>
+    <t>Review kode til OC</t>
+  </si>
+  <si>
+    <t>10.25</t>
+  </si>
+  <si>
+    <t>10.35</t>
+  </si>
+  <si>
+    <t>Lav testcase til beregnSigmaN</t>
+  </si>
+  <si>
+    <t>Review getSigmaB OC16</t>
+  </si>
+  <si>
+    <t>13.05</t>
+  </si>
+  <si>
+    <t>40 min</t>
+  </si>
+  <si>
+    <t>Hjælp Dan med bugfixing</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>20 min</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>Funktionalitet på "slet alt" knap + test (hjælp imellem)</t>
+  </si>
+  <si>
+    <t>bugfix + implementation</t>
+  </si>
+  <si>
+    <t>hjælp med at lave kørselsGuide</t>
+  </si>
+  <si>
+    <t>09.00</t>
+  </si>
+  <si>
+    <t>09.10</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>test af PteCalcController</t>
+  </si>
+  <si>
+    <t>bugfix pdf</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>14.50</t>
   </si>
 </sst>
 </file>
@@ -797,20 +929,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="A52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="9" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
@@ -1288,27 +1420,384 @@
         <v>42809</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42811</v>
+      </c>
+      <c r="C31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>42811</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42814</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42814</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42814</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42814</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C39" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42815</v>
+      </c>
+      <c r="C41" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C44" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C45" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42816</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42817</v>
+      </c>
+      <c r="C49" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42817</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42817</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E101">
-      <formula1>GyldigeRoller</formula1>
-    </dataValidation>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>Deltagere</formula1>
     </dataValidation>
@@ -1442,7 +1931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
